--- a/ExerciceExcel.xlsx
+++ b/ExerciceExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edb452f53c6aee3d/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\222\Projet-TIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F2648B15-ACAB-4B1E-ACF0-505256AAC268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E06627F-F7D6-4095-9E4D-4E9F39C473D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946AD241-6895-45F9-AEEF-B5DD9430EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{37B6ACCC-D027-4089-839A-78B1D0EE22F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" activeTab="2" xr2:uid="{37B6ACCC-D027-4089-839A-78B1D0EE22F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -165,7 +156,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,14 +175,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +216,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +257,23 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -472,13 +472,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,134 +506,215 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="7" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+  <cellStyles count="6">
+    <cellStyle name="60 % - Accent3" xfId="5" builtinId="40"/>
+    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -660,7 +743,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -722,7 +805,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -906,7 +989,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1263399631"/>
@@ -965,7 +1048,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1263381743"/>
@@ -1007,7 +1090,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1037,7 +1120,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1051,7 +1134,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1113,7 +1196,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1189,7 +1272,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268485535"/>
@@ -1251,7 +1334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268482623"/>
@@ -1292,7 +1375,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1306,7 +1389,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1368,7 +1451,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1542,7 +1625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268484287"/>
@@ -1602,7 +1685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1905267935"/>
@@ -1644,7 +1727,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1674,7 +1757,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3994,8 +4077,8 @@
     <dataField name="Somme de Students" fld="0" baseField="1" baseItem="0"/>
     <dataField name="Moyenne de Students2" fld="0" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="3">
+  <formats count="4">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4003,6 +4086,22 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -4126,7 +4225,7 @@
     <dataField name="Moyenne de Students2" fld="0" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4236,7 +4335,7 @@
     <dataField name="Somme de Students" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -4245,7 +4344,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -4268,7 +4367,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4570,21 +4669,21 @@
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="50"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4595,7 +4694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>591</v>
       </c>
@@ -4607,7 +4706,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>9567</v>
       </c>
@@ -4619,7 +4718,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>542</v>
       </c>
@@ -4631,7 +4730,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>346</v>
       </c>
@@ -4642,7 +4741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>849</v>
       </c>
@@ -4653,7 +4752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>552</v>
       </c>
@@ -4664,7 +4763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>173</v>
       </c>
@@ -4675,7 +4774,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1355</v>
       </c>
@@ -4686,7 +4785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>193</v>
       </c>
@@ -4697,7 +4796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>615</v>
       </c>
@@ -4708,7 +4807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1579</v>
       </c>
@@ -4719,7 +4818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>547</v>
       </c>
@@ -4730,7 +4829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1687</v>
       </c>
@@ -4741,7 +4840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>972</v>
       </c>
@@ -4752,7 +4851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>234</v>
       </c>
@@ -4763,7 +4862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>151</v>
       </c>
@@ -4774,7 +4873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>1793</v>
       </c>
@@ -4785,7 +4884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>315</v>
       </c>
@@ -4796,7 +4895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>618</v>
       </c>
@@ -4807,7 +4906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>246</v>
       </c>
@@ -4818,7 +4917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>784</v>
       </c>
@@ -4829,7 +4928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>316</v>
       </c>
@@ -4840,7 +4939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>3155</v>
       </c>
@@ -4851,7 +4950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>318</v>
       </c>
@@ -4862,7 +4961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>608</v>
       </c>
@@ -4873,7 +4972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>561</v>
       </c>
@@ -4884,7 +4983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>357</v>
       </c>
@@ -4895,7 +4994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>1688</v>
       </c>
@@ -4906,7 +5005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>972</v>
       </c>
@@ -4917,7 +5016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>568</v>
       </c>
@@ -4928,7 +5027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>632</v>
       </c>
@@ -4939,7 +5038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>551</v>
       </c>
@@ -4950,7 +5049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>948</v>
       </c>
@@ -4961,7 +5060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>1358</v>
       </c>
@@ -4972,7 +5071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>135</v>
       </c>
@@ -4983,7 +5082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>849</v>
       </c>
@@ -4994,7 +5093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>158</v>
       </c>
@@ -5005,7 +5104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>1889</v>
       </c>
@@ -5016,7 +5115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>651</v>
       </c>
@@ -5027,7 +5126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>651</v>
       </c>
@@ -5051,25 +5150,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D205F5-43D2-4A6E-9885-B8A33D4E6EDB}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="1" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -5080,7 +5181,7 @@
         <v>1022.125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -5091,7 +5192,7 @@
         <v>609.625</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -5102,7 +5203,7 @@
         <v>970.125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5113,7 +5214,7 @@
         <v>1883.875</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -5124,14 +5225,14 @@
         <v>523.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="53">
         <v>40074</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="53">
         <v>1001.85</v>
       </c>
     </row>
@@ -5144,18 +5245,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8F06C1-BBA9-4606-9E7A-76B1178F2074}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="37" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -5166,7 +5267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -5177,7 +5278,7 @@
         <v>2825.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -5188,7 +5289,7 @@
         <v>1050.5999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -5199,7 +5300,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -5210,7 +5311,7 @@
         <v>1249.4000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -5221,7 +5322,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -5232,7 +5333,7 @@
         <v>377.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -5243,7 +5344,7 @@
         <v>532.20000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -5254,7 +5355,7 @@
         <v>538.79999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -5278,25 +5379,25 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
@@ -5304,7 +5405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -5327,7 +5428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -5350,7 +5451,7 @@
         <v>14127</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -5373,7 +5474,7 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -5396,7 +5497,7 @@
         <v>4965</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -5419,7 +5520,7 @@
         <v>6247</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -5442,7 +5543,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -5465,7 +5566,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -5488,7 +5589,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -5511,7 +5612,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
@@ -5547,476 +5648,476 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="20">
         <v>120</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>3</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>360</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="22">
         <f t="shared" ref="E2:E15" si="0">IF(D2&lt;100,0%,IF(D2&lt;=999,5%,10%))</f>
         <v>0.05</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="20">
         <f>D2*E2</f>
         <v>18</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="23">
         <f t="shared" ref="G2:G15" si="1">D2-F2</f>
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="39">
         <v>56</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>5</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="40">
         <v>280</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="41">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="39">
         <f>D3*E3</f>
         <v>14</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="42">
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>70</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>140</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <f>D4*E4</f>
         <v>7</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="23">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="39">
         <v>430</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>7</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="40">
         <v>3010</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="41">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="39">
         <f>D5*E5</f>
         <v>301</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="42">
         <f t="shared" si="1"/>
         <v>2709</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="28">
         <v>230</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="29">
         <v>23</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="30">
         <v>5290</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <f>D6*E6</f>
         <v>529</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="32">
         <f t="shared" si="1"/>
         <v>4761</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="39">
         <v>10</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="40">
         <v>20</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="43">
         <f xml:space="preserve"> D7*E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="42">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>5</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>8</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>40</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="24">
         <f t="shared" ref="F8:F15" si="2">D8*E8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="23">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="39">
         <v>5040</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="40">
         <v>5040</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="41">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="39">
         <f t="shared" si="2"/>
         <v>504</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="42">
         <f t="shared" si="1"/>
         <v>4536</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>1200</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>3</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="21">
         <v>3600</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="23">
         <f t="shared" si="1"/>
         <v>3240</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="39">
         <v>480</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>4</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="40">
         <v>1920</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="41">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="39">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="42">
         <f t="shared" si="1"/>
         <v>1728</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <v>33</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>5</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>165</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="23">
         <f t="shared" si="1"/>
         <v>156.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="39">
         <v>1200</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>2</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="40">
         <v>2400</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="41">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="39">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="42">
         <f t="shared" si="1"/>
         <v>2160</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <v>15</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="21">
         <v>150</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="20">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="23">
         <f t="shared" si="1"/>
         <v>142.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="35">
         <v>24</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>5</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="36">
         <v>120</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="37">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="35">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="38">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="51" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="37">
+      <c r="F17" s="49"/>
+      <c r="G17" s="34">
         <f>SUM(G2:G15)</f>
         <v>20348.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="51" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="52"/>
-      <c r="G18" s="37">
+      <c r="F18" s="49"/>
+      <c r="G18" s="34">
         <v>0.19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="51" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="52"/>
-      <c r="G19" s="37">
+      <c r="F19" s="49"/>
+      <c r="G19" s="34">
         <f>G17*G18</f>
         <v>3866.1675</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="51" t="s">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="47">
+      <c r="F20" s="49"/>
+      <c r="G20" s="44">
         <f>SUM(G17,G19)</f>
         <v>24214.4175</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6037,27 +6138,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6B7067-FCCB-4861-A83C-AAAD337B4BC4}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -6069,19 +6170,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="51">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="51">
         <v>10</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -6093,19 +6194,19 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="51">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="51">
         <v>27</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="51">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -6117,19 +6218,19 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="51">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="51">
         <v>49</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="51">
         <f t="shared" si="0"/>
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -6141,19 +6242,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="51">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="51">
         <v>75</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="51">
         <f t="shared" si="0"/>
         <v>9.375</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -6165,14 +6266,14 @@
         <v>9.2222222222222214</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="52">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="52">
         <v>91</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="52">
         <f t="shared" si="0"/>
         <v>9.1</v>
       </c>

--- a/ExerciceExcel.xlsx
+++ b/ExerciceExcel.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\222\Projet-TIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacine\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946AD241-6895-45F9-AEEF-B5DD9430EC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229D1CBB-37A9-4CDD-8580-190B19658EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" activeTab="2" xr2:uid="{37B6ACCC-D027-4089-839A-78B1D0EE22F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{37B6ACCC-D027-4089-839A-78B1D0EE22F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="36">
   <si>
     <t>Ivy League Applicants</t>
   </si>
@@ -87,9 +96,6 @@
     <t>Penn State</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Étiquettes de lignes</t>
   </si>
   <si>
@@ -135,25 +141,24 @@
     <t>Total a payer</t>
   </si>
   <si>
-    <t>Total facture</t>
+    <t>Total facture:</t>
   </si>
   <si>
-    <t>TVA</t>
+    <t>TVA:</t>
   </si>
   <si>
-    <t>Val TVA</t>
+    <t>Val TVA:</t>
   </si>
   <si>
-    <t>TTC</t>
+    <t>TTC:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -216,7 +221,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,23 +266,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -326,17 +320,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -366,26 +349,52 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -393,38 +402,34 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -433,175 +438,164 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="7" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,109 +605,48 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  </cellXfs>
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+  </cellStyles>
+  <dxfs count="9">
+    <dxf>
       <alignment horizontal="left"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="60 % - Accent3" xfId="5" builtinId="40"/>
-    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
-    <cellStyle name="Monétaire" xfId="2" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
-  </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="65"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="left"/>
@@ -743,7 +676,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -805,7 +738,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -989,7 +922,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1263399631"/>
@@ -1048,7 +981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1263381743"/>
@@ -1090,7 +1023,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1120,7 +1053,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1134,7 +1067,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1196,7 +1129,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1272,7 +1205,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268485535"/>
@@ -1334,7 +1267,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268482623"/>
@@ -1375,7 +1308,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1389,7 +1322,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1451,7 +1384,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1625,7 +1558,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1268484287"/>
@@ -1685,7 +1618,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1905267935"/>
@@ -1727,7 +1660,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1757,7 +1690,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3443,13 +3376,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2289</xdr:rowOff>
+      <xdr:rowOff>13452</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>15362</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3547,6 +3480,18 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4024,7 +3969,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D5FA56E-AFDF-4467-BAE1-4E0965BBBAA3}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Étiquettes de lignes">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1D5FA56E-AFDF-4467-BAE1-4E0965BBBAA3}" name="PivotTable16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total général" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Étiquettes de lignes">
   <location ref="A1:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -4077,8 +4022,8 @@
     <dataField name="Somme de Students" fld="0" baseField="1" baseItem="0"/>
     <dataField name="Moyenne de Students2" fld="0" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="6">
+  <formats count="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4086,22 +4031,6 @@
           </reference>
         </references>
       </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" grandRow="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -4117,7 +4046,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5982B9A-B937-4584-83C6-3B4E930787D2}" name="PivotTable17" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Étiquettes de lignes">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E5982B9A-B937-4584-83C6-3B4E930787D2}" name="PivotTable17" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total général" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Étiquettes de lignes">
   <location ref="A1:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0">
@@ -4225,7 +4154,7 @@
     <dataField name="Moyenne de Students2" fld="0" subtotal="average" baseField="2" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4334,8 +4263,8 @@
   <dataFields count="1">
     <dataField name="Somme de Students" fld="0" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="2">
-    <format dxfId="4">
+  <formats count="3">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -4344,11 +4273,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -4367,7 +4305,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4665,475 +4603,475 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6656A08C-AE48-4EEA-893A-9193ABF42407}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>591</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>9567</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>542</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>346</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>849</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>552</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>173</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>1355</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>193</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>615</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>1579</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>547</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>1687</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>972</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>234</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>151</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>1793</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>315</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>618</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>246</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>784</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>316</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>3155</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>318</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>608</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>561</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>357</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>1688</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>972</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>568</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>632</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>551</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>948</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>1358</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>135</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>849</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>158</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>1889</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>651</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>651</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5151,27 +5089,27 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="30.6640625" customWidth="1"/>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -5181,8 +5119,8 @@
         <v>1022.125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -5192,8 +5130,8 @@
         <v>609.625</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -5203,8 +5141,8 @@
         <v>970.125</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -5214,8 +5152,8 @@
         <v>1883.875</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B6">
@@ -5225,14 +5163,14 @@
         <v>523.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="53">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
         <v>40074</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7">
         <v>1001.85</v>
       </c>
     </row>
@@ -5245,30 +5183,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8F06C1-BBA9-4606-9E7A-76B1178F2074}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="37" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2">
@@ -5278,8 +5216,8 @@
         <v>2825.4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3">
@@ -5289,8 +5227,8 @@
         <v>1050.5999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B4">
@@ -5300,8 +5238,8 @@
         <v>993</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -5311,8 +5249,8 @@
         <v>1249.4000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B6">
@@ -5322,8 +5260,8 @@
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B7">
@@ -5333,8 +5271,8 @@
         <v>377.4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B8">
@@ -5344,8 +5282,8 @@
         <v>532.20000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -5355,9 +5293,9 @@
         <v>538.79999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B10">
         <v>40074</v>
@@ -5375,47 +5313,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB74BADA-888D-4F1D-9AE4-A005AB181545}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -5425,11 +5363,11 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -5451,8 +5389,8 @@
         <v>14127</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B4">
@@ -5474,8 +5412,8 @@
         <v>5253</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5">
@@ -5497,8 +5435,8 @@
         <v>4965</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -5520,8 +5458,8 @@
         <v>6247</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
@@ -5543,8 +5481,8 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B8">
@@ -5566,8 +5504,8 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B9">
@@ -5589,8 +5527,8 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B10">
@@ -5612,9 +5550,9 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>22</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
         <v>8177</v>
@@ -5644,480 +5582,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D9D47E-9A4E-4C86-B0E5-8D87F4A7DB12}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="171" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="D1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="13">
         <v>120</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="30">
         <v>3</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="26">
+        <f>B2*C2</f>
         <v>360</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="16">
         <f t="shared" ref="E2:E15" si="0">IF(D2&lt;100,0%,IF(D2&lt;=999,5%,10%))</f>
         <v>0.05</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="13">
         <f>D2*E2</f>
         <v>18</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="13">
         <f t="shared" ref="G2:G15" si="1">D2-F2</f>
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="14">
         <v>56</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="31">
         <v>5</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="27">
+        <f t="shared" ref="D3:D15" si="2">B3*C3</f>
         <v>280</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="17">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F3" s="39">
-        <f>D3*E3</f>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F15" si="3">D3*E3</f>
         <v>14</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="14">
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="13">
         <v>70</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="30">
         <v>2</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="26">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F4" s="20">
-        <f>D4*E4</f>
+      <c r="F4" s="13">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="13">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="14">
         <v>430</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="31">
         <v>7</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="27">
+        <f t="shared" si="2"/>
         <v>3010</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F5" s="39">
-        <f>D5*E5</f>
+      <c r="F5" s="14">
+        <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="14">
         <f t="shared" si="1"/>
         <v>2709</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="24">
         <v>230</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="32">
         <v>23</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="26">
+        <f t="shared" si="2"/>
         <v>5290</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F6" s="28">
-        <f>D6*E6</f>
+      <c r="F6" s="13">
+        <f t="shared" si="3"/>
         <v>529</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="13">
         <f t="shared" si="1"/>
         <v>4761</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="14">
         <v>10</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="31">
         <v>2</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="27">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="43">
-        <f xml:space="preserve"> D7*E7</f>
+      <c r="F7" s="14">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="13">
         <v>5</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="30">
         <v>8</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="26">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="24">
-        <f t="shared" ref="F8:F15" si="2">D8*E8</f>
+      <c r="F8" s="13">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="14">
         <v>5040</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="31">
         <v>1</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="27">
+        <f t="shared" si="2"/>
         <v>5040</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F9" s="39">
-        <f t="shared" si="2"/>
+      <c r="F9" s="14">
+        <f t="shared" si="3"/>
         <v>504</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
         <v>4536</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="13">
         <v>1200</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="30">
         <v>3</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="26">
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="16">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F10" s="20">
-        <f t="shared" si="2"/>
+      <c r="F10" s="13">
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>3240</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="14">
         <v>480</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="31">
         <v>4</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="27">
+        <f t="shared" si="2"/>
         <v>1920</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F11" s="39">
-        <f t="shared" si="2"/>
+      <c r="F11" s="14">
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
-      <c r="G11" s="42">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>1728</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="13">
         <v>33</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="30">
         <v>5</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="26">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F12" s="20">
-        <f t="shared" si="2"/>
+      <c r="F12" s="13">
+        <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>156.75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="14">
         <v>1200</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="31">
         <v>2</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="27">
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="F13" s="39">
-        <f t="shared" si="2"/>
+      <c r="F13" s="14">
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
         <v>2160</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="13">
         <v>15</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="30">
         <v>10</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="26">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="16">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F14" s="20">
-        <f t="shared" si="2"/>
+      <c r="F14" s="13">
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>142.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="15">
         <v>24</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="33">
         <v>5</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="28">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="18">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F15" s="35">
-        <f t="shared" si="2"/>
+      <c r="F15" s="15">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="15">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="34">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="E17" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43">
         <f>SUM(G2:G15)</f>
         <v>20348.25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="48" t="s">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="E18" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="44">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="E19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="34">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="34">
+      <c r="F19" s="42"/>
+      <c r="G19" s="43">
         <f>G17*G18</f>
         <v>3866.1675</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="44">
+    <row r="20" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="E20" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="45">
         <f>SUM(G17,G19)</f>
         <v>24214.4175</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6129,7 +6074,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F7" formula="1"/>
+    <ignoredError sqref="E2:E3 E4:E15" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6138,142 +6083,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6B7067-FCCB-4861-A83C-AAAD337B4BC4}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="15.6640625" customWidth="1"/>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="C1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="47">
         <v>5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="47">
         <f t="shared" ref="C2:C11" si="0">B2/A2</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="51">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="48">
         <v>10</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="47">
         <v>17</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="47">
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="51">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="48">
         <v>27</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="48">
         <f t="shared" si="0"/>
         <v>6.75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="47">
         <v>37</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="47">
         <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="51">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="36">
         <v>6</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="48">
         <v>49</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="48">
         <f t="shared" si="0"/>
         <v>8.1666666666666661</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="47">
         <v>63</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="47">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="51">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
         <v>8</v>
       </c>
-      <c r="B9" s="51">
+      <c r="B9" s="48">
         <v>75</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="48">
         <f t="shared" si="0"/>
         <v>9.375</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="47">
         <v>83</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="47">
         <f t="shared" si="0"/>
         <v>9.2222222222222214</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="52">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="49">
         <v>91</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="49">
         <f t="shared" si="0"/>
         <v>9.1</v>
       </c>
